--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.7100370209819</v>
+        <v>256.7416712139283</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2119998931884766</v>
+        <v>0.2279999256134033</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>36.74167121392826</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.683053194461346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.683053194461346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.99999999998771</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -863,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090582</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>39.55844691287496</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.98393028943172</v>
+        <v>37.02633317135386</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.31694680553866</v>
+        <v>34.22809649842574</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,20 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>152.3989999999989</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1035,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01899999999978</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
@@ -1046,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>34.60299999999985</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>108.5809999999992</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7009999999999</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>152.3989999999989</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>156.7009999999999</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.398999999998864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1148,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6.700999999999906</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1217,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6.629</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1253,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,23 +1255,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
